--- a/analysis/metadata/P01_1/P01_1_minimal_metadata.xlsx
+++ b/analysis/metadata/P01_1/P01_1_minimal_metadata.xlsx
@@ -471,6 +471,11 @@
           <t>råbjerg kirke</t>
         </is>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr">
         <is>
           <t>p3 heath</t>
@@ -539,6 +544,11 @@
           <t>uggerby strand</t>
         </is>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>p3 heath</t>
@@ -607,6 +617,11 @@
           <t>råbjerg mile</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr">
         <is>
           <t>p3 bog</t>
@@ -670,6 +685,11 @@
           <t>kjærsgård</t>
         </is>
       </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>field</t>
@@ -723,6 +743,11 @@
           <t>vandplasken</t>
         </is>
       </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr">
         <is>
           <t>p3 bog</t>
@@ -786,6 +811,11 @@
           <t>uggerby skovvej</t>
         </is>
       </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr">
         <is>
           <t>ley</t>
@@ -839,6 +869,11 @@
           <t>kjul strand</t>
         </is>
       </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr">
         <is>
           <t>unknown (not p3 nature, no info in biowide)</t>
@@ -907,6 +942,11 @@
           <t>bunken</t>
         </is>
       </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr">
         <is>
           <t>p3 bog</t>
@@ -970,6 +1010,11 @@
           <t>tversted plantage</t>
         </is>
       </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr">
         <is>
           <t>plantation</t>
@@ -1023,6 +1068,11 @@
           <t>kællingdal</t>
         </is>
       </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr">
         <is>
           <t>p3 grassland</t>
@@ -1091,6 +1141,11 @@
           <t>lild strand</t>
         </is>
       </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr">
         <is>
           <t>p3 heath</t>
@@ -1154,6 +1209,11 @@
           <t>raspkær</t>
         </is>
       </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr">
         <is>
           <t>unknown (not p3 nature, no info in biowide)</t>
@@ -1207,6 +1267,11 @@
           <t>tømmerby fjord</t>
         </is>
       </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr">
         <is>
           <t>p3 bog</t>
@@ -1275,6 +1340,11 @@
           <t>febbested</t>
         </is>
       </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr">
         <is>
           <t>p3 grassland</t>
@@ -1343,6 +1413,11 @@
           <t>kokkærvand</t>
         </is>
       </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr">
         <is>
           <t>p3 heath</t>
@@ -1406,6 +1481,11 @@
           <t>tjenestejorden</t>
         </is>
       </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I17" t="inlineStr">
         <is>
           <t>old agriculture field , p3 grassland</t>
@@ -1454,6 +1534,11 @@
           <t>tovsigvej</t>
         </is>
       </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I18" t="inlineStr">
         <is>
           <t>plantation</t>
@@ -1507,6 +1592,11 @@
           <t>østerild</t>
         </is>
       </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I19" t="inlineStr">
         <is>
           <t>p3 meadow</t>
@@ -1575,6 +1665,11 @@
           <t>buderupholm</t>
         </is>
       </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I20" t="inlineStr">
         <is>
           <t>unknown (not p3 nature, no info in biowide)</t>
@@ -1643,6 +1738,11 @@
           <t>urskoven</t>
         </is>
       </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I21" t="inlineStr">
         <is>
           <t>unknown (not p3 nature, no info in biowide)</t>
@@ -1711,6 +1811,11 @@
           <t>skindbjerglund</t>
         </is>
       </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I22" t="inlineStr">
         <is>
           <t>unknown (not p3 nature, no info in biowide)</t>
@@ -1779,6 +1884,11 @@
           <t>høstemark engskov</t>
         </is>
       </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I23" t="inlineStr">
         <is>
           <t>p3 bog</t>
@@ -1847,6 +1957,11 @@
           <t>høstemark sumpskov</t>
         </is>
       </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I24" t="inlineStr">
         <is>
           <t>p3 bog</t>
@@ -1915,6 +2030,11 @@
           <t>regan vest</t>
         </is>
       </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I25" t="inlineStr">
         <is>
           <t>unknown (not p3 nature, no info in biowide)</t>
@@ -1983,6 +2103,11 @@
           <t>gravlev kær</t>
         </is>
       </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I26" t="inlineStr">
         <is>
           <t>p3 meadow</t>
@@ -2046,6 +2171,11 @@
           <t>rold</t>
         </is>
       </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I27" t="inlineStr">
         <is>
           <t>plantation</t>
@@ -2099,6 +2229,11 @@
           <t>husby klit</t>
         </is>
       </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I28" t="inlineStr">
         <is>
           <t>p3 heath</t>
@@ -2167,6 +2302,11 @@
           <t>ejstrup mose</t>
         </is>
       </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I29" t="inlineStr">
         <is>
           <t>p3 bog</t>
@@ -2230,6 +2370,11 @@
           <t>sønderbyvej</t>
         </is>
       </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I30" t="inlineStr">
         <is>
           <t>field</t>
@@ -2283,6 +2428,11 @@
           <t>lilleå</t>
         </is>
       </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I31" t="inlineStr">
         <is>
           <t>p3 heath</t>
@@ -2351,6 +2501,11 @@
           <t>ejstrup eng</t>
         </is>
       </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I32" t="inlineStr">
         <is>
           <t>p3 bog</t>
@@ -2414,6 +2569,11 @@
           <t>ejstrup krat</t>
         </is>
       </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I33" t="inlineStr">
         <is>
           <t>p3 bog</t>
@@ -2462,6 +2622,11 @@
           <t>nissum</t>
         </is>
       </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I34" t="inlineStr">
         <is>
           <t>p3 bog</t>
@@ -2510,6 +2675,11 @@
           <t>klitvej</t>
         </is>
       </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I35" t="inlineStr">
         <is>
           <t>old agriculture field , p3 meadow</t>
@@ -2558,6 +2728,11 @@
           <t>stråsø plantage</t>
         </is>
       </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I36" t="inlineStr">
         <is>
           <t>plantation</t>
@@ -2611,6 +2786,11 @@
           <t>nymindegab</t>
         </is>
       </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I37" t="inlineStr">
         <is>
           <t>p3 bog</t>
@@ -2679,6 +2859,11 @@
           <t>houstrup strand</t>
         </is>
       </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I38" t="inlineStr">
         <is>
           <t>p3 bog</t>
@@ -2747,6 +2932,11 @@
           <t>vrøgum kær</t>
         </is>
       </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I39" t="inlineStr">
         <is>
           <t>p3 bog</t>
@@ -2815,6 +3005,11 @@
           <t>kjærgaard løvklitter</t>
         </is>
       </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I40" t="inlineStr">
         <is>
           <t>unknown (not p3 nature, no info in biowide)</t>
@@ -2878,6 +3073,11 @@
           <t>lønne</t>
         </is>
       </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I41" t="inlineStr">
         <is>
           <t>ley</t>
@@ -2931,6 +3131,11 @@
           <t>blåvand</t>
         </is>
       </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I42" t="inlineStr">
         <is>
           <t>p3 grassland</t>
@@ -2999,6 +3204,11 @@
           <t>breddal</t>
         </is>
       </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I43" t="inlineStr">
         <is>
           <t>p3 bog</t>
@@ -3062,6 +3272,11 @@
           <t>filsøvej</t>
         </is>
       </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I44" t="inlineStr">
         <is>
           <t>plantation</t>
@@ -3115,6 +3330,11 @@
           <t>lovrup</t>
         </is>
       </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I45" t="inlineStr">
         <is>
           <t>p3 grassland</t>
@@ -3183,6 +3403,11 @@
           <t>helm hede</t>
         </is>
       </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I46" t="inlineStr">
         <is>
           <t>p3 heath</t>
@@ -3251,6 +3476,11 @@
           <t>lindestykket</t>
         </is>
       </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I47" t="inlineStr">
         <is>
           <t>unknown (not p3 nature, no info in biowide)</t>
@@ -3319,6 +3549,11 @@
           <t>lindet</t>
         </is>
       </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I48" t="inlineStr">
         <is>
           <t>unknown (not p3 nature, no info in biowide)</t>
@@ -3387,6 +3622,11 @@
           <t>gram slot</t>
         </is>
       </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I49" t="inlineStr">
         <is>
           <t>unknown (not p3 nature, no info in biowide)</t>
@@ -3455,6 +3695,11 @@
           <t>grønnevej</t>
         </is>
       </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I50" t="inlineStr">
         <is>
           <t>unknown (not p3 nature, no info in biowide)</t>
@@ -3523,6 +3768,11 @@
           <t>gråbjerg mose</t>
         </is>
       </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I51" t="inlineStr">
         <is>
           <t>p3 bog</t>
@@ -3591,6 +3841,11 @@
           <t>gram å</t>
         </is>
       </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I52" t="inlineStr">
         <is>
           <t>p3 bog</t>
@@ -3654,6 +3909,11 @@
           <t>damvej</t>
         </is>
       </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I53" t="inlineStr">
         <is>
           <t>plantation</t>
@@ -3707,6 +3967,11 @@
           <t>elbjerg</t>
         </is>
       </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I54" t="inlineStr">
         <is>
           <t>p3 grassland</t>
@@ -3770,6 +4035,11 @@
           <t>kalø</t>
         </is>
       </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I55" t="inlineStr">
         <is>
           <t>field</t>
@@ -3823,6 +4093,11 @@
           <t>glatved</t>
         </is>
       </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I56" t="inlineStr">
         <is>
           <t>p3 grassland</t>
@@ -3891,6 +4166,11 @@
           <t>hestehaven</t>
         </is>
       </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I57" t="inlineStr">
         <is>
           <t>unknown (not p3 nature, no info in biowide)</t>
@@ -3959,6 +4239,11 @@
           <t>helligkilde</t>
         </is>
       </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I58" t="inlineStr">
         <is>
           <t>p3 heath</t>
@@ -4027,6 +4312,11 @@
           <t>tyskertårnet</t>
         </is>
       </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I59" t="inlineStr">
         <is>
           <t>p3 grassland</t>
@@ -4090,6 +4380,11 @@
           <t>sletterhage</t>
         </is>
       </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I60" t="inlineStr">
         <is>
           <t>p3 bog</t>
@@ -4138,6 +4433,11 @@
           <t>strandkær</t>
         </is>
       </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I61" t="inlineStr">
         <is>
           <t>p3 meadow</t>
@@ -4191,6 +4491,11 @@
           <t>langemose</t>
         </is>
       </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I62" t="inlineStr">
         <is>
           <t>p3 bog</t>
@@ -4259,6 +4564,11 @@
           <t>urfuglebakken</t>
         </is>
       </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I63" t="inlineStr">
         <is>
           <t>unknown (not p3 nature, no info in biowide)</t>
@@ -4327,6 +4637,11 @@
           <t>letmose</t>
         </is>
       </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I64" t="inlineStr">
         <is>
           <t>p3 bog</t>
@@ -4395,6 +4710,11 @@
           <t>mossø</t>
         </is>
       </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I65" t="inlineStr">
         <is>
           <t>p3 meadow</t>
@@ -4463,6 +4783,11 @@
           <t>tørvefladen</t>
         </is>
       </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I66" t="inlineStr">
         <is>
           <t>unknown (not p3 nature, no info in biowide)</t>
@@ -4531,6 +4856,11 @@
           <t>odderholm</t>
         </is>
       </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I67" t="inlineStr">
         <is>
           <t>p3 bog</t>
@@ -4599,6 +4929,11 @@
           <t>højkol</t>
         </is>
       </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I68" t="inlineStr">
         <is>
           <t>unknown (not p3 nature, no info in biowide)</t>
@@ -4662,6 +4997,11 @@
           <t>haarup sande</t>
         </is>
       </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I69" t="inlineStr">
         <is>
           <t>unknown (not p3 nature, no info in biowide)</t>
@@ -4715,6 +5055,11 @@
           <t>knagerne</t>
         </is>
       </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I70" t="inlineStr">
         <is>
           <t>unknown (not p3 nature, no info in biowide)</t>
@@ -4783,6 +5128,11 @@
           <t>gjessøvej</t>
         </is>
       </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I71" t="inlineStr">
         <is>
           <t>p3 bog</t>
@@ -4851,6 +5201,11 @@
           <t>bjergfald</t>
         </is>
       </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I72" t="inlineStr">
         <is>
           <t>unknown (not p3 nature, no info in biowide)</t>
@@ -4919,6 +5274,11 @@
           <t>vejle fjord</t>
         </is>
       </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I73" t="inlineStr">
         <is>
           <t>p3 bog</t>
@@ -4982,6 +5342,11 @@
           <t>brøndsted fælled</t>
         </is>
       </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I74" t="inlineStr">
         <is>
           <t>ley</t>
@@ -5030,6 +5395,11 @@
           <t>rands fjord</t>
         </is>
       </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I75" t="inlineStr">
         <is>
           <t>p3 bog</t>
@@ -5078,6 +5448,11 @@
           <t>svinholt</t>
         </is>
       </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I76" t="inlineStr">
         <is>
           <t>p3 grassland</t>
@@ -5126,6 +5501,11 @@
           <t>vesterskov</t>
         </is>
       </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I77" t="inlineStr">
         <is>
           <t>plantation</t>
@@ -5174,6 +5554,11 @@
           <t>rand skov</t>
         </is>
       </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I78" t="inlineStr">
         <is>
           <t>plantation</t>
@@ -5222,6 +5607,11 @@
           <t>grund skov</t>
         </is>
       </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I79" t="inlineStr">
         <is>
           <t>plantation</t>
@@ -5275,6 +5665,11 @@
           <t>melby hede</t>
         </is>
       </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I80" t="inlineStr">
         <is>
           <t>p3 heath</t>
@@ -5343,6 +5738,11 @@
           <t>melby overdrev</t>
         </is>
       </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I81" t="inlineStr">
         <is>
           <t>p3 heath</t>
@@ -5411,6 +5811,11 @@
           <t>strødam</t>
         </is>
       </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I82" t="inlineStr">
         <is>
           <t>unknown (not p3 nature, no info in biowide)</t>
@@ -5479,6 +5884,11 @@
           <t>birkemose</t>
         </is>
       </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I83" t="inlineStr">
         <is>
           <t>p3 bog</t>
@@ -5547,6 +5957,11 @@
           <t>maglemose</t>
         </is>
       </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I84" t="inlineStr">
         <is>
           <t>p3 bog</t>
@@ -5615,6 +6030,11 @@
           <t>toggerup tørvemose</t>
         </is>
       </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I85" t="inlineStr">
         <is>
           <t>p3 bog</t>
@@ -5678,6 +6098,11 @@
           <t>ellemose</t>
         </is>
       </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I86" t="inlineStr">
         <is>
           <t>p3 bog</t>
@@ -5726,6 +6151,11 @@
           <t>tisvilde hegn</t>
         </is>
       </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I87" t="inlineStr">
         <is>
           <t>plantation</t>
@@ -5774,6 +6204,11 @@
           <t>tibberup holme</t>
         </is>
       </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I88" t="inlineStr">
         <is>
           <t>plantation</t>
@@ -5827,6 +6262,11 @@
           <t>diesbjerg</t>
         </is>
       </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I89" t="inlineStr">
         <is>
           <t>p3 grassland</t>
@@ -5895,6 +6335,11 @@
           <t>eskebjerg vesterlyng</t>
         </is>
       </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I90" t="inlineStr">
         <is>
           <t>p3 heath</t>
@@ -5963,6 +6408,11 @@
           <t>eskebjerg enghave</t>
         </is>
       </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I91" t="inlineStr">
         <is>
           <t>p3 heath</t>
@@ -6031,6 +6481,11 @@
           <t>malles næs</t>
         </is>
       </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I92" t="inlineStr">
         <is>
           <t>p3 strandmeadow</t>
@@ -6099,6 +6554,11 @@
           <t>kaldred kær</t>
         </is>
       </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I93" t="inlineStr">
         <is>
           <t>p3 bog</t>
@@ -6167,6 +6627,11 @@
           <t>skamlebæk</t>
         </is>
       </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I94" t="inlineStr">
         <is>
           <t>p3 heath</t>
@@ -6235,6 +6700,11 @@
           <t>røsnæs krat</t>
         </is>
       </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I95" t="inlineStr">
         <is>
           <t>p3 grassland</t>
@@ -6298,6 +6768,11 @@
           <t>røsnæs</t>
         </is>
       </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I96" t="inlineStr">
         <is>
           <t>old agriculture field , skov? na</t>
@@ -6351,6 +6826,11 @@
           <t>allindelille fredskov</t>
         </is>
       </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I97" t="inlineStr">
         <is>
           <t>unknown (not p3 nature, no info in biowide)</t>
@@ -6419,6 +6899,11 @@
           <t>suserup skov</t>
         </is>
       </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I98" t="inlineStr">
         <is>
           <t>unknown (not p3 nature, no info in biowide)</t>
@@ -6482,6 +6967,11 @@
           <t>broby vesterskov</t>
         </is>
       </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I99" t="inlineStr">
         <is>
           <t>plantation</t>
@@ -6535,6 +7025,11 @@
           <t>avnsø</t>
         </is>
       </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I100" t="inlineStr">
         <is>
           <t>p3 bog</t>
@@ -6598,6 +7093,11 @@
           <t>smuldmosen</t>
         </is>
       </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I101" t="inlineStr">
         <is>
           <t>p3 bog</t>
@@ -6651,6 +7151,11 @@
           <t>frederikskilde skov</t>
         </is>
       </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I102" t="inlineStr">
         <is>
           <t>p3 bog</t>
@@ -6714,6 +7219,11 @@
           <t>kongskilde friluftsgård</t>
         </is>
       </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I103" t="inlineStr">
         <is>
           <t>ley</t>
@@ -6762,6 +7272,11 @@
           <t>fuglebjerg</t>
         </is>
       </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I104" t="inlineStr">
         <is>
           <t>field</t>
@@ -6815,6 +7330,11 @@
           <t>bimosen</t>
         </is>
       </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I105" t="inlineStr">
         <is>
           <t>p3 meadow</t>
@@ -6878,6 +7398,11 @@
           <t>svanninge bakker</t>
         </is>
       </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I106" t="inlineStr">
         <is>
           <t>unknown (not p3 nature, no info in biowide)</t>
@@ -6931,6 +7456,11 @@
           <t>hestebakke</t>
         </is>
       </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I107" t="inlineStr">
         <is>
           <t>p3 grassland</t>
@@ -6994,6 +7524,11 @@
           <t>dalkildegård</t>
         </is>
       </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I108" t="inlineStr">
         <is>
           <t>plantation</t>
@@ -7047,6 +7582,11 @@
           <t>iglesø</t>
         </is>
       </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I109" t="inlineStr">
         <is>
           <t>p3 bog</t>
@@ -7115,6 +7655,11 @@
           <t>rødme svinehaver</t>
         </is>
       </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I110" t="inlineStr">
         <is>
           <t>p3 grassland</t>
@@ -7183,6 +7728,11 @@
           <t>skyttegård</t>
         </is>
       </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I111" t="inlineStr">
         <is>
           <t>p3 bog</t>
@@ -7251,6 +7801,11 @@
           <t>nybo mose</t>
         </is>
       </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I112" t="inlineStr">
         <is>
           <t>p3 bog</t>
@@ -7319,6 +7874,11 @@
           <t>stævningen</t>
         </is>
       </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I113" t="inlineStr">
         <is>
           <t>p3 bog</t>
@@ -7382,6 +7942,11 @@
           <t>fuglsang storskov</t>
         </is>
       </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I114" t="inlineStr">
         <is>
           <t>plantation</t>
@@ -7435,6 +8000,11 @@
           <t>løgnor</t>
         </is>
       </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I115" t="inlineStr">
         <is>
           <t>unknown (not p3 nature, no info in biowide)</t>
@@ -7498,6 +8068,11 @@
           <t>bursø</t>
         </is>
       </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I116" t="inlineStr">
         <is>
           <t>field</t>
@@ -7551,6 +8126,11 @@
           <t>fuglse mose</t>
         </is>
       </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I117" t="inlineStr">
         <is>
           <t>p3 bog</t>
@@ -7619,6 +8199,11 @@
           <t>skelsnæs</t>
         </is>
       </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I118" t="inlineStr">
         <is>
           <t>unknown (not p3 nature, no info in biowide)</t>
@@ -7682,6 +8267,11 @@
           <t>søholt</t>
         </is>
       </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I119" t="inlineStr">
         <is>
           <t>unknown (not p3 nature, no info in biowide)</t>
@@ -7730,6 +8320,11 @@
           <t>musse mose</t>
         </is>
       </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I120" t="inlineStr">
         <is>
           <t>p3 bog</t>
@@ -7778,6 +8373,11 @@
           <t>hejrede sø</t>
         </is>
       </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I121" t="inlineStr">
         <is>
           <t>old agriculture field , skov? na</t>
@@ -7831,6 +8431,11 @@
           <t>klinteskov</t>
         </is>
       </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I122" t="inlineStr">
         <is>
           <t>unknown (not p3 nature, no info in biowide)</t>
@@ -7899,6 +8504,11 @@
           <t>ulvshale klit</t>
         </is>
       </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I123" t="inlineStr">
         <is>
           <t>p3 grassland</t>
@@ -7967,6 +8577,11 @@
           <t>ulvshale hede</t>
         </is>
       </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I124" t="inlineStr">
         <is>
           <t>p3 heath</t>
@@ -8030,6 +8645,11 @@
           <t>busemarke mose</t>
         </is>
       </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I125" t="inlineStr">
         <is>
           <t>p3 meadow</t>
@@ -8078,6 +8698,11 @@
           <t>busemarke sø</t>
         </is>
       </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I126" t="inlineStr">
         <is>
           <t>p3 meadow</t>
@@ -8131,6 +8756,11 @@
           <t>høvblege</t>
         </is>
       </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I127" t="inlineStr">
         <is>
           <t>p3 grassland</t>
@@ -8199,6 +8829,11 @@
           <t>timesø bjerg</t>
         </is>
       </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I128" t="inlineStr">
         <is>
           <t>unknown (not p3 nature, no info in biowide)</t>
@@ -8267,6 +8902,11 @@
           <t>jydelejet</t>
         </is>
       </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I129" t="inlineStr">
         <is>
           <t>p3 grassland</t>
@@ -8330,6 +8970,11 @@
           <t>hegnede bakke</t>
         </is>
       </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
+        </is>
+      </c>
       <c r="I130" t="inlineStr">
         <is>
           <t>ley</t>
@@ -8381,6 +9026,11 @@
       <c r="G131" t="inlineStr">
         <is>
           <t>lindebakker</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>11/05/2020 00:00</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">

--- a/analysis/metadata/P01_1/P01_1_minimal_metadata.xlsx
+++ b/analysis/metadata/P01_1/P01_1_minimal_metadata.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -546,7 +546,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -813,7 +813,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -871,7 +871,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -944,7 +944,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1012,7 +1012,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1070,7 +1070,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1143,7 +1143,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1211,7 +1211,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1269,7 +1269,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1415,7 +1415,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1483,7 +1483,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1594,7 +1594,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1667,7 +1667,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1740,7 +1740,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1813,7 +1813,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1886,7 +1886,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1959,7 +1959,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2032,7 +2032,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2105,7 +2105,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2173,7 +2173,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2231,7 +2231,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2304,7 +2304,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2372,7 +2372,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2430,7 +2430,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2503,7 +2503,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2571,7 +2571,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2624,7 +2624,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2677,7 +2677,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2730,7 +2730,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2788,7 +2788,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2861,7 +2861,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2934,7 +2934,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3007,7 +3007,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3075,7 +3075,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3133,7 +3133,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3206,7 +3206,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3274,7 +3274,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3332,7 +3332,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3405,7 +3405,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3478,7 +3478,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3551,7 +3551,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3624,7 +3624,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3697,7 +3697,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3770,7 +3770,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3843,7 +3843,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3911,7 +3911,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3969,7 +3969,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4037,7 +4037,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4095,7 +4095,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -4241,7 +4241,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4314,7 +4314,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4382,7 +4382,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -4435,7 +4435,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -4493,7 +4493,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -4566,7 +4566,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -4639,7 +4639,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -4712,7 +4712,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -4785,7 +4785,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -4858,7 +4858,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -4931,7 +4931,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -4999,7 +4999,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -5057,7 +5057,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -5130,7 +5130,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -5203,7 +5203,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -5276,7 +5276,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -5344,7 +5344,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -5397,7 +5397,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -5450,7 +5450,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -5503,7 +5503,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -5556,7 +5556,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -5609,7 +5609,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -5667,7 +5667,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -5740,7 +5740,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -5813,7 +5813,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -5886,7 +5886,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -5959,7 +5959,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -6032,7 +6032,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -6100,7 +6100,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -6153,7 +6153,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -6206,7 +6206,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -6264,7 +6264,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -6337,7 +6337,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -6410,7 +6410,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -6483,7 +6483,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -6556,7 +6556,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -6629,7 +6629,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -6702,7 +6702,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -6770,7 +6770,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -6828,7 +6828,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -6901,7 +6901,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -6969,7 +6969,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -7027,7 +7027,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -7095,7 +7095,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -7153,7 +7153,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -7221,7 +7221,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -7274,7 +7274,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -7332,7 +7332,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -7400,7 +7400,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -7458,7 +7458,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -7526,7 +7526,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -7584,7 +7584,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -7657,7 +7657,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -7730,7 +7730,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -7803,7 +7803,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -7876,7 +7876,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -7944,7 +7944,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -8002,7 +8002,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -8070,7 +8070,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -8128,7 +8128,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -8201,7 +8201,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -8269,7 +8269,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -8322,7 +8322,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -8375,7 +8375,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -8433,7 +8433,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -8506,7 +8506,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -8579,7 +8579,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -8647,7 +8647,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -8700,7 +8700,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -8758,7 +8758,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -8831,7 +8831,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -8904,7 +8904,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -8972,7 +8972,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -9030,7 +9030,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>11/05/2020 00:00</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">

--- a/analysis/metadata/P01_1/P01_1_minimal_metadata.xlsx
+++ b/analysis/metadata/P01_1/P01_1_minimal_metadata.xlsx
@@ -15,6 +15,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -52,11 +55,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -356,6 +360,9 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="13" max="13" width="20.7109375" style="2" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
@@ -496,6 +503,9 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M2" s="2">
+        <v>41960</v>
+      </c>
       <c r="N2" t="inlineStr">
         <is>
           <t>Dunes</t>
@@ -569,6 +579,9 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M3" s="2">
+        <v>41961</v>
+      </c>
       <c r="N3" t="inlineStr">
         <is>
           <t>Bogs, mires and fens</t>
@@ -642,6 +655,9 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M4" s="2">
+        <v>41960</v>
+      </c>
       <c r="N4" t="inlineStr">
         <is>
           <t>Bogs, mires and fens</t>
@@ -710,6 +726,9 @@
           <t>Agriculture</t>
         </is>
       </c>
+      <c r="M5" s="2">
+        <v>41961</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -768,6 +787,9 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M6" s="2">
+        <v>41961</v>
+      </c>
       <c r="N6" t="inlineStr">
         <is>
           <t>Bogs, mires and fens</t>
@@ -836,6 +858,9 @@
           <t>Agriculture</t>
         </is>
       </c>
+      <c r="M7" s="2">
+        <v>41961</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -894,6 +919,9 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M8" s="2">
+        <v>41961</v>
+      </c>
       <c r="N8" t="inlineStr">
         <is>
           <t>Bogs, mires and fens</t>
@@ -967,6 +995,9 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M9" s="2">
+        <v>41960</v>
+      </c>
       <c r="N9" t="inlineStr">
         <is>
           <t>Dunes</t>
@@ -1035,6 +1066,9 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M10" s="2">
+        <v>41961</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1093,6 +1127,9 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M11" s="2">
+        <v>41959</v>
+      </c>
       <c r="N11" t="inlineStr">
         <is>
           <t>Grassland formations</t>
@@ -1166,6 +1203,9 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M12" s="2">
+        <v>41959</v>
+      </c>
       <c r="N12" t="inlineStr">
         <is>
           <t>Heath and scrub</t>
@@ -1234,6 +1274,9 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M13" s="2">
+        <v>41959</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1292,9 +1335,12 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M14" s="2">
+        <v>41960</v>
+      </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1365,6 +1411,9 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M15" s="2">
+        <v>41959</v>
+      </c>
       <c r="N15" t="inlineStr">
         <is>
           <t>Dunes</t>
@@ -1438,6 +1487,9 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M16" s="2">
+        <v>41959</v>
+      </c>
       <c r="N16" t="inlineStr">
         <is>
           <t>Dunes</t>
@@ -1506,6 +1558,9 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M17" s="2">
+        <v>41960</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1559,6 +1614,9 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M18" s="2">
+        <v>41960</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1617,6 +1675,9 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M19" s="2">
+        <v>41960</v>
+      </c>
       <c r="N19" t="inlineStr">
         <is>
           <t>Grassland formations</t>
@@ -1690,9 +1751,12 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M20" s="2">
+        <v>41962</v>
+      </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -1763,9 +1827,12 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M21" s="2">
+        <v>41962</v>
+      </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -1836,9 +1903,12 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M22" s="2">
+        <v>41962</v>
+      </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -1848,7 +1918,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Oak-hornbeam mixed forrest</t>
+          <t>Oak-hornbeam mixed forest</t>
         </is>
       </c>
     </row>
@@ -1909,9 +1979,12 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M23" s="2">
+        <v>41962</v>
+      </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -1921,7 +1994,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Oak-hornbeam mixed forrest</t>
+          <t>Oak-hornbeam mixed forest</t>
         </is>
       </c>
     </row>
@@ -1982,9 +2055,12 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M24" s="2">
+        <v>41962</v>
+      </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2055,6 +2131,9 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M25" s="2">
+        <v>41962</v>
+      </c>
       <c r="N25" t="inlineStr">
         <is>
           <t>Sclerophyllus scrub</t>
@@ -2128,6 +2207,9 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M26" s="2">
+        <v>41962</v>
+      </c>
       <c r="N26" t="inlineStr">
         <is>
           <t>Bogs, mires and fens</t>
@@ -2196,6 +2278,9 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M27" s="2">
+        <v>41962</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2254,6 +2339,9 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M28" s="2">
+        <v>41955</v>
+      </c>
       <c r="N28" t="inlineStr">
         <is>
           <t>Dunes</t>
@@ -2327,6 +2415,9 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M29" s="2">
+        <v>41954</v>
+      </c>
       <c r="N29" t="inlineStr">
         <is>
           <t>Bogs, mires and fens</t>
@@ -2395,6 +2486,9 @@
           <t>Agriculture</t>
         </is>
       </c>
+      <c r="M30" s="2">
+        <v>41955</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2453,6 +2547,9 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M31" s="2">
+        <v>41955</v>
+      </c>
       <c r="N31" t="inlineStr">
         <is>
           <t>Heath and scrub</t>
@@ -2526,6 +2623,9 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M32" s="2">
+        <v>41954</v>
+      </c>
       <c r="N32" t="inlineStr">
         <is>
           <t>Bogs, mires and fens</t>
@@ -2594,6 +2694,9 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M33" s="2">
+        <v>41954</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2647,6 +2750,9 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M34" s="2">
+        <v>41955</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2700,6 +2806,9 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M35" s="2">
+        <v>41955</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2753,6 +2862,9 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M36" s="2">
+        <v>41955</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2811,6 +2923,9 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M37" s="2">
+        <v>41954</v>
+      </c>
       <c r="N37" t="inlineStr">
         <is>
           <t>Grassland formations</t>
@@ -2884,6 +2999,9 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M38" s="2">
+        <v>41954</v>
+      </c>
       <c r="N38" t="inlineStr">
         <is>
           <t>Bogs, mires and fens</t>
@@ -2957,6 +3075,9 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M39" s="2">
+        <v>41953</v>
+      </c>
       <c r="N39" t="inlineStr">
         <is>
           <t>Bogs, mires and fens</t>
@@ -3030,9 +3151,12 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M40" s="2">
+        <v>41953</v>
+      </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -3042,7 +3166,7 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Oak forrest  Old acidophilous woods with Q. robur on sandy plains</t>
+          <t>Oak forest  Old acidophilous woods with Q. robur on sandy plains</t>
         </is>
       </c>
     </row>
@@ -3098,6 +3222,9 @@
           <t>Agriculture</t>
         </is>
       </c>
+      <c r="M41" s="2">
+        <v>41954</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3156,6 +3283,9 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M42" s="2">
+        <v>41953</v>
+      </c>
       <c r="N42" t="inlineStr">
         <is>
           <t>Dunes</t>
@@ -3229,6 +3359,9 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M43" s="2">
+        <v>41953</v>
+      </c>
       <c r="N43" t="inlineStr">
         <is>
           <t>Dunes</t>
@@ -3297,6 +3430,9 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M44" s="2">
+        <v>41953</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3355,6 +3491,9 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M45" s="2">
+        <v>41949</v>
+      </c>
       <c r="N45" t="inlineStr">
         <is>
           <t>Grassland formations</t>
@@ -3428,6 +3567,9 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M46" s="2">
+        <v>41949</v>
+      </c>
       <c r="N46" t="inlineStr">
         <is>
           <t>Heath and scrub</t>
@@ -3501,9 +3643,12 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M47" s="2">
+        <v>41949</v>
+      </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -3513,7 +3658,7 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Oak-hornbeam mixed forrest</t>
+          <t>Oak-hornbeam mixed forest</t>
         </is>
       </c>
     </row>
@@ -3574,9 +3719,12 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M48" s="2">
+        <v>41949</v>
+      </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -3586,7 +3734,7 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Oak forrest  Old acidophilous woods with Q. robur on sandy plains</t>
+          <t>Oak forest  Old acidophilous woods with Q. robur on sandy plains</t>
         </is>
       </c>
     </row>
@@ -3647,9 +3795,12 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M49" s="2">
+        <v>41949</v>
+      </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -3720,9 +3871,12 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M50" s="2">
+        <v>41949</v>
+      </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -3732,7 +3886,7 @@
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Oak-hornbeam mixed forrest</t>
+          <t>Oak-hornbeam mixed forest</t>
         </is>
       </c>
     </row>
@@ -3793,9 +3947,12 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M51" s="2">
+        <v>41949</v>
+      </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -3866,9 +4023,12 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M52" s="2">
+        <v>41949</v>
+      </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -3934,6 +4094,9 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M53" s="2">
+        <v>41949</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3992,6 +4155,9 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M54" s="2">
+        <v>41956</v>
+      </c>
       <c r="N54" t="inlineStr">
         <is>
           <t>Grassland formations</t>
@@ -4060,6 +4226,9 @@
           <t>Agriculture</t>
         </is>
       </c>
+      <c r="M55" s="2">
+        <v>41956</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4118,6 +4287,9 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M56" s="2">
+        <v>41956</v>
+      </c>
       <c r="N56" t="inlineStr">
         <is>
           <t>Sclerophyllus scrub</t>
@@ -4191,9 +4363,12 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M57" s="2">
+        <v>41956</v>
+      </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -4264,6 +4439,9 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M58" s="2">
+        <v>41956</v>
+      </c>
       <c r="N58" t="inlineStr">
         <is>
           <t>Grassland formations</t>
@@ -4337,6 +4515,9 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M59" s="2">
+        <v>41956</v>
+      </c>
       <c r="N59" t="inlineStr">
         <is>
           <t>Grassland formations</t>
@@ -4405,6 +4586,9 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M60" s="2">
+        <v>41956</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4458,6 +4642,9 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M61" s="2">
+        <v>41956</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -4516,6 +4703,9 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M62" s="2">
+        <v>41956</v>
+      </c>
       <c r="N62" t="inlineStr">
         <is>
           <t>Bogs, mires and fens</t>
@@ -4589,6 +4779,9 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M63" s="2">
+        <v>41930</v>
+      </c>
       <c r="N63" t="inlineStr">
         <is>
           <t>Heath and scrub</t>
@@ -4662,6 +4855,9 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M64" s="2">
+        <v>41930</v>
+      </c>
       <c r="N64" t="inlineStr">
         <is>
           <t>Bogs, mires and fens</t>
@@ -4735,6 +4931,9 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M65" s="2">
+        <v>41928</v>
+      </c>
       <c r="N65" t="inlineStr">
         <is>
           <t>Grassland formations</t>
@@ -4808,6 +5007,9 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M66" s="2">
+        <v>41930</v>
+      </c>
       <c r="N66" t="inlineStr">
         <is>
           <t>Bogs, mires and fens</t>
@@ -4881,6 +5083,9 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M67" s="2">
+        <v>41928</v>
+      </c>
       <c r="N67" t="inlineStr">
         <is>
           <t>Bogs, mires and fens</t>
@@ -4954,6 +5159,9 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M68" s="2">
+        <v>41930</v>
+      </c>
       <c r="N68" t="inlineStr">
         <is>
           <t>Sclerophyllus scrub</t>
@@ -5022,6 +5230,9 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M69" s="2">
+        <v>41930</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -5080,9 +5291,12 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M70" s="2">
+        <v>41930</v>
+      </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -5153,9 +5367,12 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M71" s="2">
+        <v>41930</v>
+      </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -5226,9 +5443,12 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M72" s="2">
+        <v>41947</v>
+      </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -5299,9 +5519,12 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M73" s="2">
+        <v>41947</v>
+      </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -5367,6 +5590,9 @@
           <t>Agriculture</t>
         </is>
       </c>
+      <c r="M74" s="2">
+        <v>41947</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -5420,6 +5646,9 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M75" s="2">
+        <v>41947</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -5473,6 +5702,9 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M76" s="2">
+        <v>41947</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -5526,6 +5758,9 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M77" s="2">
+        <v>41947</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -5579,6 +5814,9 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M78" s="2">
+        <v>41947</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -5632,6 +5870,9 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M79" s="2">
+        <v>41947</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -5690,6 +5931,9 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M80" s="2">
+        <v>41939</v>
+      </c>
       <c r="N80" t="inlineStr">
         <is>
           <t>Grassland formations</t>
@@ -5763,6 +6007,9 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M81" s="2">
+        <v>41939</v>
+      </c>
       <c r="N81" t="inlineStr">
         <is>
           <t>Grassland formations</t>
@@ -5836,9 +6083,12 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M82" s="2">
+        <v>41939</v>
+      </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -5909,9 +6159,12 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M83" s="2">
+        <v>41939</v>
+      </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
@@ -5982,9 +6235,12 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M84" s="2">
+        <v>41939</v>
+      </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -6055,6 +6311,9 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M85" s="2">
+        <v>41939</v>
+      </c>
       <c r="N85" t="inlineStr">
         <is>
           <t>Bogs, mires and fens</t>
@@ -6123,6 +6382,9 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M86" s="2">
+        <v>41939</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -6176,6 +6438,9 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M87" s="2">
+        <v>41939</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -6229,6 +6494,9 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M88" s="2">
+        <v>41939</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -6287,6 +6555,9 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M89" s="2">
+        <v>41935</v>
+      </c>
       <c r="N89" t="inlineStr">
         <is>
           <t>Grassland formations</t>
@@ -6360,6 +6631,9 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M90" s="2">
+        <v>41935</v>
+      </c>
       <c r="N90" t="inlineStr">
         <is>
           <t>Grassland formations</t>
@@ -6433,6 +6707,9 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M91" s="2">
+        <v>41935</v>
+      </c>
       <c r="N91" t="inlineStr">
         <is>
           <t>Dunes</t>
@@ -6506,6 +6783,9 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M92" s="2">
+        <v>41935</v>
+      </c>
       <c r="N92" t="inlineStr">
         <is>
           <t>Grassland formations</t>
@@ -6579,6 +6859,9 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M93" s="2">
+        <v>41935</v>
+      </c>
       <c r="N93" t="inlineStr">
         <is>
           <t>Bogs, mires and fens</t>
@@ -6652,6 +6935,9 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M94" s="2">
+        <v>41935</v>
+      </c>
       <c r="N94" t="inlineStr">
         <is>
           <t>Heath and scrub</t>
@@ -6725,6 +7011,9 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M95" s="2">
+        <v>41935</v>
+      </c>
       <c r="N95" t="inlineStr">
         <is>
           <t>Sclerophyllus scrub</t>
@@ -6793,6 +7082,9 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M96" s="2">
+        <v>41935</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -6851,9 +7143,12 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M97" s="2">
+        <v>41936</v>
+      </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
@@ -6924,9 +7219,12 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M98" s="2">
+        <v>41933</v>
+      </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
@@ -6992,6 +7290,9 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M99" s="2">
+        <v>41933</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -7050,9 +7351,12 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M100" s="2">
+        <v>41936</v>
+      </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
@@ -7118,6 +7422,9 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M101" s="2">
+        <v>41936</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -7176,9 +7483,12 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M102" s="2">
+        <v>41933</v>
+      </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
@@ -7244,6 +7554,9 @@
           <t>Agriculture</t>
         </is>
       </c>
+      <c r="M103" s="2">
+        <v>41933</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -7297,6 +7610,9 @@
           <t>Agriculture</t>
         </is>
       </c>
+      <c r="M104" s="2">
+        <v>41933</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -7355,6 +7671,9 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M105" s="2">
+        <v>41933</v>
+      </c>
       <c r="N105" t="inlineStr">
         <is>
           <t>Grassland formations</t>
@@ -7423,6 +7742,9 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M106" s="2">
+        <v>41942</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -7481,6 +7803,9 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M107" s="2">
+        <v>41942</v>
+      </c>
       <c r="N107" t="inlineStr">
         <is>
           <t>Grassland formations</t>
@@ -7549,6 +7874,9 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M108" s="2">
+        <v>41942</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -7607,6 +7935,9 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M109" s="2">
+        <v>41942</v>
+      </c>
       <c r="N109" t="inlineStr">
         <is>
           <t>Bogs, mires and fens</t>
@@ -7680,6 +8011,9 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M110" s="2">
+        <v>41942</v>
+      </c>
       <c r="N110" t="inlineStr">
         <is>
           <t>Grassland formations</t>
@@ -7753,9 +8087,12 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M111" s="2">
+        <v>41942</v>
+      </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O111" t="inlineStr">
@@ -7826,6 +8163,9 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M112" s="2">
+        <v>41942</v>
+      </c>
       <c r="N112" t="inlineStr">
         <is>
           <t>Bogs, mires and fens</t>
@@ -7899,6 +8239,9 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M113" s="2">
+        <v>41942</v>
+      </c>
       <c r="N113" t="inlineStr">
         <is>
           <t>Bogs, mires and fens</t>
@@ -7967,6 +8310,9 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M114" s="2">
+        <v>41940</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -8025,9 +8371,12 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M115" s="2">
+        <v>41940</v>
+      </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O115" t="inlineStr">
@@ -8093,6 +8442,9 @@
           <t>Agriculture</t>
         </is>
       </c>
+      <c r="M116" s="2">
+        <v>41940</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -8151,9 +8503,12 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M117" s="2">
+        <v>41940</v>
+      </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O117" t="inlineStr">
@@ -8224,9 +8579,12 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M118" s="2">
+        <v>41940</v>
+      </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O118" t="inlineStr">
@@ -8292,6 +8650,9 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M119" s="2">
+        <v>41940</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -8345,6 +8706,9 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M120" s="2">
+        <v>41940</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -8398,6 +8762,9 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M121" s="2">
+        <v>41940</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -8456,9 +8823,12 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M122" s="2">
+        <v>41932</v>
+      </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O122" t="inlineStr">
@@ -8529,6 +8899,9 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M123" s="2">
+        <v>41932</v>
+      </c>
       <c r="N123" t="inlineStr">
         <is>
           <t>Dunes</t>
@@ -8602,6 +8975,9 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M124" s="2">
+        <v>41932</v>
+      </c>
       <c r="N124" t="inlineStr">
         <is>
           <t>Heath and scrub</t>
@@ -8670,6 +9046,9 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M125" s="2">
+        <v>41932</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -8723,6 +9102,9 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M126" s="2">
+        <v>41932</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -8781,6 +9163,9 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M127" s="2">
+        <v>41932</v>
+      </c>
       <c r="N127" t="inlineStr">
         <is>
           <t>Grassland formations</t>
@@ -8854,9 +9239,12 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M128" s="2">
+        <v>41932</v>
+      </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
       <c r="O128" t="inlineStr">
@@ -8927,6 +9315,9 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M129" s="2">
+        <v>41932</v>
+      </c>
       <c r="N129" t="inlineStr">
         <is>
           <t>Grassland formations</t>
@@ -8995,6 +9386,9 @@
           <t>Agriculture</t>
         </is>
       </c>
+      <c r="M130" s="2">
+        <v>41932</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -9053,9 +9447,12 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M131" s="2">
+        <v>41932</v>
+      </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>Forrests</t>
+          <t>Forests</t>
         </is>
       </c>
     </row>

--- a/analysis/metadata/P01_1/P01_1_minimal_metadata.xlsx
+++ b/analysis/metadata/P01_1/P01_1_minimal_metadata.xlsx
@@ -696,6 +696,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr">
         <is>
           <t>kjærsgård</t>
@@ -828,6 +833,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6233</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr">
         <is>
           <t>uggerby skovvej</t>
@@ -1036,6 +1046,11 @@
           <t>natural_soil</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9911</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr">
         <is>
           <t>tversted plantage</t>
@@ -1244,6 +1259,11 @@
           <t>natural_soil</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9915</t>
+        </is>
+      </c>
       <c r="G13" t="inlineStr">
         <is>
           <t>raspkær</t>
@@ -1528,6 +1548,11 @@
           <t>natural_soil</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6233</t>
+        </is>
+      </c>
       <c r="G17" t="inlineStr">
         <is>
           <t>tjenestejorden</t>
@@ -1584,6 +1609,11 @@
           <t>natural_soil</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9990</t>
+        </is>
+      </c>
       <c r="G18" t="inlineStr">
         <is>
           <t>tovsigvej</t>
@@ -2248,6 +2278,11 @@
           <t>natural_soil</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>9940</t>
+        </is>
+      </c>
       <c r="G27" t="inlineStr">
         <is>
           <t>rold</t>
@@ -2456,6 +2491,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
       <c r="G30" t="inlineStr">
         <is>
           <t>sønderbyvej</t>
@@ -2664,6 +2704,11 @@
           <t>natural_soil</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>9920</t>
+        </is>
+      </c>
       <c r="G33" t="inlineStr">
         <is>
           <t>ejstrup krat</t>
@@ -2720,6 +2765,11 @@
           <t>natural_soil</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>9920</t>
+        </is>
+      </c>
       <c r="G34" t="inlineStr">
         <is>
           <t>nissum</t>
@@ -2776,6 +2826,11 @@
           <t>natural_soil</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6233</t>
+        </is>
+      </c>
       <c r="G35" t="inlineStr">
         <is>
           <t>klitvej</t>
@@ -2832,6 +2887,11 @@
           <t>natural_soil</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>9940</t>
+        </is>
+      </c>
       <c r="G36" t="inlineStr">
         <is>
           <t>stråsø plantage</t>
@@ -3192,6 +3252,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6212</t>
+        </is>
+      </c>
       <c r="G41" t="inlineStr">
         <is>
           <t>lønne</t>
@@ -3400,6 +3465,11 @@
           <t>natural_soil</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>9990</t>
+        </is>
+      </c>
       <c r="G44" t="inlineStr">
         <is>
           <t>filsøvej</t>
@@ -4064,6 +4134,11 @@
           <t>natural_soil</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>9911</t>
+        </is>
+      </c>
       <c r="G53" t="inlineStr">
         <is>
           <t>damvej</t>
@@ -4196,6 +4271,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
       <c r="G55" t="inlineStr">
         <is>
           <t>kalø</t>
@@ -4556,6 +4636,11 @@
           <t>natural_soil</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>9990</t>
+        </is>
+      </c>
       <c r="G60" t="inlineStr">
         <is>
           <t>sletterhage</t>
@@ -4612,6 +4697,11 @@
           <t>natural_soil</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>6402</t>
+        </is>
+      </c>
       <c r="G61" t="inlineStr">
         <is>
           <t>strandkær</t>
@@ -5200,6 +5290,11 @@
           <t>natural_soil</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>9915</t>
+        </is>
+      </c>
       <c r="G69" t="inlineStr">
         <is>
           <t>haarup sande</t>
@@ -5560,6 +5655,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>6233</t>
+        </is>
+      </c>
       <c r="G74" t="inlineStr">
         <is>
           <t>brøndsted fælled</t>
@@ -5616,6 +5716,11 @@
           <t>natural_soil</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>7007</t>
+        </is>
+      </c>
       <c r="G75" t="inlineStr">
         <is>
           <t>rands fjord</t>
@@ -5672,6 +5777,11 @@
           <t>natural_soil</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>6402</t>
+        </is>
+      </c>
       <c r="G76" t="inlineStr">
         <is>
           <t>svinholt</t>
@@ -5728,6 +5838,11 @@
           <t>natural_soil</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>9940</t>
+        </is>
+      </c>
       <c r="G77" t="inlineStr">
         <is>
           <t>vesterskov</t>
@@ -5784,6 +5899,11 @@
           <t>natural_soil</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>9911</t>
+        </is>
+      </c>
       <c r="G78" t="inlineStr">
         <is>
           <t>rand skov</t>
@@ -5840,6 +5960,11 @@
           <t>natural_soil</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>9990</t>
+        </is>
+      </c>
       <c r="G79" t="inlineStr">
         <is>
           <t>grund skov</t>
@@ -6352,6 +6477,11 @@
           <t>natural_soil</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>9920</t>
+        </is>
+      </c>
       <c r="G86" t="inlineStr">
         <is>
           <t>ellemose</t>
@@ -6408,6 +6538,11 @@
           <t>natural_soil</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>9911</t>
+        </is>
+      </c>
       <c r="G87" t="inlineStr">
         <is>
           <t>tisvilde hegn</t>
@@ -6464,6 +6599,11 @@
           <t>natural_soil</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>9990</t>
+        </is>
+      </c>
       <c r="G88" t="inlineStr">
         <is>
           <t>tibberup holme</t>
@@ -7052,6 +7192,11 @@
           <t>natural_soil</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>6233</t>
+        </is>
+      </c>
       <c r="G96" t="inlineStr">
         <is>
           <t>røsnæs</t>
@@ -7260,6 +7405,11 @@
           <t>natural_soil</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>9940</t>
+        </is>
+      </c>
       <c r="G99" t="inlineStr">
         <is>
           <t>broby vesterskov</t>
@@ -7392,6 +7542,11 @@
           <t>natural_soil</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>9920</t>
+        </is>
+      </c>
       <c r="G101" t="inlineStr">
         <is>
           <t>smuldmosen</t>
@@ -7524,6 +7679,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>6233</t>
+        </is>
+      </c>
       <c r="G103" t="inlineStr">
         <is>
           <t>kongskilde friluftsgård</t>
@@ -7580,6 +7740,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
       <c r="G104" t="inlineStr">
         <is>
           <t>fuglebjerg</t>
@@ -7712,6 +7877,11 @@
           <t>natural_soil</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>9990</t>
+        </is>
+      </c>
       <c r="G106" t="inlineStr">
         <is>
           <t>svanninge bakker</t>
@@ -7844,6 +8014,11 @@
           <t>natural_soil</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>9990</t>
+        </is>
+      </c>
       <c r="G108" t="inlineStr">
         <is>
           <t>dalkildegård</t>
@@ -8280,6 +8455,11 @@
           <t>natural_soil</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>9911</t>
+        </is>
+      </c>
       <c r="G114" t="inlineStr">
         <is>
           <t>fuglsang storskov</t>
@@ -8412,6 +8592,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
       <c r="G116" t="inlineStr">
         <is>
           <t>bursø</t>
@@ -8620,6 +8805,11 @@
           <t>natural_soil</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>9920</t>
+        </is>
+      </c>
       <c r="G119" t="inlineStr">
         <is>
           <t>søholt</t>
@@ -8676,6 +8866,11 @@
           <t>natural_soil</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>6402</t>
+        </is>
+      </c>
       <c r="G120" t="inlineStr">
         <is>
           <t>musse mose</t>
@@ -8732,6 +8927,11 @@
           <t>natural_soil</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>6233</t>
+        </is>
+      </c>
       <c r="G121" t="inlineStr">
         <is>
           <t>hejrede sø</t>
@@ -9016,6 +9216,11 @@
           <t>natural_soil</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>6402</t>
+        </is>
+      </c>
       <c r="G125" t="inlineStr">
         <is>
           <t>busemarke mose</t>
@@ -9072,6 +9277,11 @@
           <t>natural_soil</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>6402</t>
+        </is>
+      </c>
       <c r="G126" t="inlineStr">
         <is>
           <t>busemarke sø</t>
@@ -9356,6 +9566,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>6233</t>
+        </is>
+      </c>
       <c r="G130" t="inlineStr">
         <is>
           <t>hegnede bakke</t>
@@ -9414,7 +9629,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>9000</t>
+          <t>9940</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">

--- a/analysis/metadata/P01_1/P01_1_minimal_metadata.xlsx
+++ b/analysis/metadata/P01_1/P01_1_minimal_metadata.xlsx
@@ -1208,17 +1208,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Heath and scrub</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>Temperate heath</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>Wet heath</t>
+          <t>Temperate heath and scrub</t>
         </is>
       </c>
     </row>
@@ -2552,17 +2542,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Heath and scrub</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>Temperate heath</t>
-        </is>
-      </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>Dry heath</t>
+          <t>Temperate heath and scrub</t>
         </is>
       </c>
     </row>
@@ -3572,17 +3552,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Heath and scrub</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>Temperate heath</t>
-        </is>
-      </c>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t>Wet heath</t>
+          <t>Temperate heath and scrub</t>
         </is>
       </c>
     </row>
@@ -4784,17 +4754,7 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Heath and scrub</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>Temperate heath</t>
-        </is>
-      </c>
-      <c r="P63" t="inlineStr">
-        <is>
-          <t>Dry heath</t>
+          <t>Temperate heath and scrub</t>
         </is>
       </c>
     </row>
@@ -6940,17 +6900,7 @@
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>Heath and scrub</t>
-        </is>
-      </c>
-      <c r="O94" t="inlineStr">
-        <is>
-          <t>Temperate heath</t>
-        </is>
-      </c>
-      <c r="P94" t="inlineStr">
-        <is>
-          <t>Dry heath</t>
+          <t>Temperate heath and scrub</t>
         </is>
       </c>
     </row>
@@ -8980,17 +8930,7 @@
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>Heath and scrub</t>
-        </is>
-      </c>
-      <c r="O124" t="inlineStr">
-        <is>
-          <t>Temperate heath</t>
-        </is>
-      </c>
-      <c r="P124" t="inlineStr">
-        <is>
-          <t>Wet heath</t>
+          <t>Temperate heath and scrub</t>
         </is>
       </c>
     </row>

--- a/analysis/metadata/P01_1/P01_1_minimal_metadata.xlsx
+++ b/analysis/metadata/P01_1/P01_1_minimal_metadata.xlsx
@@ -1170,7 +1170,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4010</t>
+          <t>4110</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1211,6 +1211,16 @@
           <t>Temperate heath and scrub</t>
         </is>
       </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Temperate heath</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Wet heath</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2504,7 +2514,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>4030</t>
+          <t>4130</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2545,6 +2555,16 @@
           <t>Temperate heath and scrub</t>
         </is>
       </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Temperate heath</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Dry heath</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3514,7 +3534,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>4010</t>
+          <t>4110</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -3555,6 +3575,16 @@
           <t>Temperate heath and scrub</t>
         </is>
       </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>Temperate heath</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Wet heath</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4716,7 +4746,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>4030</t>
+          <t>4130</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -4757,6 +4787,16 @@
           <t>Temperate heath and scrub</t>
         </is>
       </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>Temperate heath</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>Dry heath</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -6862,7 +6902,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>4030</t>
+          <t>4130</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -6903,6 +6943,16 @@
           <t>Temperate heath and scrub</t>
         </is>
       </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>Temperate heath</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>Dry heath</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -8892,7 +8942,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>4010</t>
+          <t>4110</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -8931,6 +8981,16 @@
       <c r="N124" t="inlineStr">
         <is>
           <t>Temperate heath and scrub</t>
+        </is>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>Temperate heath</t>
+        </is>
+      </c>
+      <c r="P124" t="inlineStr">
+        <is>
+          <t>Wet heath</t>
         </is>
       </c>
     </row>

--- a/analysis/metadata/P01_1/P01_1_minimal_metadata.xlsx
+++ b/analysis/metadata/P01_1/P01_1_minimal_metadata.xlsx
@@ -696,6 +696,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr">
         <is>
           <t>kjærsgård</t>
@@ -828,6 +833,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6233</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr">
         <is>
           <t>uggerby skovvej</t>
@@ -1036,6 +1046,11 @@
           <t>natural_soil</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9911</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr">
         <is>
           <t>tversted plantage</t>
@@ -1170,7 +1185,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4110</t>
+          <t>4010</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1244,6 +1259,11 @@
           <t>natural_soil</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9915</t>
+        </is>
+      </c>
       <c r="G13" t="inlineStr">
         <is>
           <t>raspkær</t>
@@ -1528,6 +1548,11 @@
           <t>natural_soil</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6233</t>
+        </is>
+      </c>
       <c r="G17" t="inlineStr">
         <is>
           <t>tjenestejorden</t>
@@ -1584,6 +1609,11 @@
           <t>natural_soil</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9990</t>
+        </is>
+      </c>
       <c r="G18" t="inlineStr">
         <is>
           <t>tovsigvej</t>
@@ -2248,6 +2278,11 @@
           <t>natural_soil</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>9940</t>
+        </is>
+      </c>
       <c r="G27" t="inlineStr">
         <is>
           <t>rold</t>
@@ -2456,6 +2491,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
       <c r="G30" t="inlineStr">
         <is>
           <t>sønderbyvej</t>
@@ -2514,7 +2554,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>4130</t>
+          <t>4030</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2664,6 +2704,11 @@
           <t>natural_soil</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>9920</t>
+        </is>
+      </c>
       <c r="G33" t="inlineStr">
         <is>
           <t>ejstrup krat</t>
@@ -2720,6 +2765,11 @@
           <t>natural_soil</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>9920</t>
+        </is>
+      </c>
       <c r="G34" t="inlineStr">
         <is>
           <t>nissum</t>
@@ -2776,6 +2826,11 @@
           <t>natural_soil</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6233</t>
+        </is>
+      </c>
       <c r="G35" t="inlineStr">
         <is>
           <t>klitvej</t>
@@ -2832,6 +2887,11 @@
           <t>natural_soil</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>9940</t>
+        </is>
+      </c>
       <c r="G36" t="inlineStr">
         <is>
           <t>stråsø plantage</t>
@@ -3192,6 +3252,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6212</t>
+        </is>
+      </c>
       <c r="G41" t="inlineStr">
         <is>
           <t>lønne</t>
@@ -3400,6 +3465,11 @@
           <t>natural_soil</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>9990</t>
+        </is>
+      </c>
       <c r="G44" t="inlineStr">
         <is>
           <t>filsøvej</t>
@@ -3534,7 +3604,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>4110</t>
+          <t>4010</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -4064,6 +4134,11 @@
           <t>natural_soil</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>9911</t>
+        </is>
+      </c>
       <c r="G53" t="inlineStr">
         <is>
           <t>damvej</t>
@@ -4196,6 +4271,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
       <c r="G55" t="inlineStr">
         <is>
           <t>kalø</t>
@@ -4556,6 +4636,11 @@
           <t>natural_soil</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>9990</t>
+        </is>
+      </c>
       <c r="G60" t="inlineStr">
         <is>
           <t>sletterhage</t>
@@ -4612,6 +4697,11 @@
           <t>natural_soil</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>6402</t>
+        </is>
+      </c>
       <c r="G61" t="inlineStr">
         <is>
           <t>strandkær</t>
@@ -4746,7 +4836,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>4130</t>
+          <t>4030</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -5200,6 +5290,11 @@
           <t>natural_soil</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>9915</t>
+        </is>
+      </c>
       <c r="G69" t="inlineStr">
         <is>
           <t>haarup sande</t>
@@ -5560,6 +5655,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>6233</t>
+        </is>
+      </c>
       <c r="G74" t="inlineStr">
         <is>
           <t>brøndsted fælled</t>
@@ -5616,6 +5716,11 @@
           <t>natural_soil</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>7007</t>
+        </is>
+      </c>
       <c r="G75" t="inlineStr">
         <is>
           <t>rands fjord</t>
@@ -5672,6 +5777,11 @@
           <t>natural_soil</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>6402</t>
+        </is>
+      </c>
       <c r="G76" t="inlineStr">
         <is>
           <t>svinholt</t>
@@ -5728,6 +5838,11 @@
           <t>natural_soil</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>9940</t>
+        </is>
+      </c>
       <c r="G77" t="inlineStr">
         <is>
           <t>vesterskov</t>
@@ -5784,6 +5899,11 @@
           <t>natural_soil</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>9911</t>
+        </is>
+      </c>
       <c r="G78" t="inlineStr">
         <is>
           <t>rand skov</t>
@@ -5840,6 +5960,11 @@
           <t>natural_soil</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>9990</t>
+        </is>
+      </c>
       <c r="G79" t="inlineStr">
         <is>
           <t>grund skov</t>
@@ -6352,6 +6477,11 @@
           <t>natural_soil</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>9920</t>
+        </is>
+      </c>
       <c r="G86" t="inlineStr">
         <is>
           <t>ellemose</t>
@@ -6408,6 +6538,11 @@
           <t>natural_soil</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>9911</t>
+        </is>
+      </c>
       <c r="G87" t="inlineStr">
         <is>
           <t>tisvilde hegn</t>
@@ -6464,6 +6599,11 @@
           <t>natural_soil</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>9990</t>
+        </is>
+      </c>
       <c r="G88" t="inlineStr">
         <is>
           <t>tibberup holme</t>
@@ -6902,7 +7042,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>4130</t>
+          <t>4030</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -7052,6 +7192,11 @@
           <t>natural_soil</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>6233</t>
+        </is>
+      </c>
       <c r="G96" t="inlineStr">
         <is>
           <t>røsnæs</t>
@@ -7260,6 +7405,11 @@
           <t>natural_soil</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>9940</t>
+        </is>
+      </c>
       <c r="G99" t="inlineStr">
         <is>
           <t>broby vesterskov</t>
@@ -7392,6 +7542,11 @@
           <t>natural_soil</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>9920</t>
+        </is>
+      </c>
       <c r="G101" t="inlineStr">
         <is>
           <t>smuldmosen</t>
@@ -7524,6 +7679,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>6233</t>
+        </is>
+      </c>
       <c r="G103" t="inlineStr">
         <is>
           <t>kongskilde friluftsgård</t>
@@ -7580,6 +7740,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
       <c r="G104" t="inlineStr">
         <is>
           <t>fuglebjerg</t>
@@ -7712,6 +7877,11 @@
           <t>natural_soil</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>9990</t>
+        </is>
+      </c>
       <c r="G106" t="inlineStr">
         <is>
           <t>svanninge bakker</t>
@@ -7844,6 +8014,11 @@
           <t>natural_soil</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>9990</t>
+        </is>
+      </c>
       <c r="G108" t="inlineStr">
         <is>
           <t>dalkildegård</t>
@@ -8280,6 +8455,11 @@
           <t>natural_soil</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>9911</t>
+        </is>
+      </c>
       <c r="G114" t="inlineStr">
         <is>
           <t>fuglsang storskov</t>
@@ -8412,6 +8592,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
       <c r="G116" t="inlineStr">
         <is>
           <t>bursø</t>
@@ -8620,6 +8805,11 @@
           <t>natural_soil</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>9920</t>
+        </is>
+      </c>
       <c r="G119" t="inlineStr">
         <is>
           <t>søholt</t>
@@ -8676,6 +8866,11 @@
           <t>natural_soil</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>6402</t>
+        </is>
+      </c>
       <c r="G120" t="inlineStr">
         <is>
           <t>musse mose</t>
@@ -8732,6 +8927,11 @@
           <t>natural_soil</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>6233</t>
+        </is>
+      </c>
       <c r="G121" t="inlineStr">
         <is>
           <t>hejrede sø</t>
@@ -8942,7 +9142,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>4110</t>
+          <t>4010</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -9016,6 +9216,11 @@
           <t>natural_soil</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>6402</t>
+        </is>
+      </c>
       <c r="G125" t="inlineStr">
         <is>
           <t>busemarke mose</t>
@@ -9072,6 +9277,11 @@
           <t>natural_soil</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>6402</t>
+        </is>
+      </c>
       <c r="G126" t="inlineStr">
         <is>
           <t>busemarke sø</t>
@@ -9356,6 +9566,11 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>6233</t>
+        </is>
+      </c>
       <c r="G130" t="inlineStr">
         <is>
           <t>hegnede bakke</t>
@@ -9414,7 +9629,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>9000</t>
+          <t>9940</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">

--- a/analysis/metadata/P01_1/P01_1_minimal_metadata.xlsx
+++ b/analysis/metadata/P01_1/P01_1_minimal_metadata.xlsx
@@ -15,9 +15,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -55,12 +52,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -360,9 +356,6 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="13" max="13" width="20.7109375" style="2" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
@@ -503,8 +496,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M2" s="2">
-        <v>41960</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2014-11-17</t>
+        </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -579,8 +574,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M3" s="2">
-        <v>41961</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2014-11-18</t>
+        </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -655,8 +652,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M4" s="2">
-        <v>41960</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>2014-11-17</t>
+        </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -731,8 +730,10 @@
           <t>Agriculture</t>
         </is>
       </c>
-      <c r="M5" s="2">
-        <v>41961</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>2014-11-18</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -792,8 +793,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M6" s="2">
-        <v>41961</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>2014-11-18</t>
+        </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -868,8 +871,10 @@
           <t>Agriculture</t>
         </is>
       </c>
-      <c r="M7" s="2">
-        <v>41961</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>2014-11-18</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -929,8 +934,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M8" s="2">
-        <v>41961</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>2014-11-18</t>
+        </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -1005,8 +1012,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M9" s="2">
-        <v>41960</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>2014-11-17</t>
+        </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1081,8 +1090,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M10" s="2">
-        <v>41961</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>2014-11-18</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -1142,8 +1153,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M11" s="2">
-        <v>41959</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>2014-11-16</t>
+        </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1218,8 +1231,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M12" s="2">
-        <v>41959</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>2014-11-16</t>
+        </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1294,8 +1309,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M13" s="2">
-        <v>41959</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>2014-11-16</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -1355,8 +1372,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M14" s="2">
-        <v>41960</v>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>2014-11-17</t>
+        </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1431,8 +1450,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M15" s="2">
-        <v>41959</v>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>2014-11-16</t>
+        </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1507,8 +1528,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M16" s="2">
-        <v>41959</v>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>2014-11-16</t>
+        </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1583,8 +1606,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M17" s="2">
-        <v>41960</v>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>2014-11-17</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -1644,8 +1669,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M18" s="2">
-        <v>41960</v>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>2014-11-17</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -1705,8 +1732,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M19" s="2">
-        <v>41960</v>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>2014-11-17</t>
+        </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1781,8 +1810,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M20" s="2">
-        <v>41962</v>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>2014-11-19</t>
+        </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1857,8 +1888,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M21" s="2">
-        <v>41962</v>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>2014-11-19</t>
+        </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1933,8 +1966,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M22" s="2">
-        <v>41962</v>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>2014-11-19</t>
+        </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -2009,8 +2044,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M23" s="2">
-        <v>41962</v>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>2014-11-19</t>
+        </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2085,8 +2122,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M24" s="2">
-        <v>41962</v>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>2014-11-19</t>
+        </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2161,8 +2200,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M25" s="2">
-        <v>41962</v>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>2014-11-19</t>
+        </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2237,8 +2278,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M26" s="2">
-        <v>41962</v>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>2014-11-19</t>
+        </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2313,8 +2356,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M27" s="2">
-        <v>41962</v>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>2014-11-19</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -2374,8 +2419,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M28" s="2">
-        <v>41955</v>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>2014-11-12</t>
+        </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2450,8 +2497,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M29" s="2">
-        <v>41954</v>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>2014-11-11</t>
+        </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2526,8 +2575,10 @@
           <t>Agriculture</t>
         </is>
       </c>
-      <c r="M30" s="2">
-        <v>41955</v>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>2014-11-12</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -2587,8 +2638,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M31" s="2">
-        <v>41955</v>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>2014-11-12</t>
+        </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2663,8 +2716,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M32" s="2">
-        <v>41954</v>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>2014-11-11</t>
+        </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2739,8 +2794,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M33" s="2">
-        <v>41954</v>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>2014-11-11</t>
+        </is>
       </c>
     </row>
     <row r="34">
@@ -2800,8 +2857,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M34" s="2">
-        <v>41955</v>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>2014-11-12</t>
+        </is>
       </c>
     </row>
     <row r="35">
@@ -2861,8 +2920,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M35" s="2">
-        <v>41955</v>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>2014-11-12</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -2922,8 +2983,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M36" s="2">
-        <v>41955</v>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>2014-11-12</t>
+        </is>
       </c>
     </row>
     <row r="37">
@@ -2983,8 +3046,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M37" s="2">
-        <v>41954</v>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>2014-11-11</t>
+        </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3059,8 +3124,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M38" s="2">
-        <v>41954</v>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>2014-11-11</t>
+        </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3135,8 +3202,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M39" s="2">
-        <v>41953</v>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>2014-11-10</t>
+        </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3211,8 +3280,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M40" s="2">
-        <v>41953</v>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>2014-11-10</t>
+        </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3287,8 +3358,10 @@
           <t>Agriculture</t>
         </is>
       </c>
-      <c r="M41" s="2">
-        <v>41954</v>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>2014-11-11</t>
+        </is>
       </c>
     </row>
     <row r="42">
@@ -3348,8 +3421,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M42" s="2">
-        <v>41953</v>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>2014-11-10</t>
+        </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3424,8 +3499,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M43" s="2">
-        <v>41953</v>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>2014-11-10</t>
+        </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3500,8 +3577,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M44" s="2">
-        <v>41953</v>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>2014-11-10</t>
+        </is>
       </c>
     </row>
     <row r="45">
@@ -3561,8 +3640,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M45" s="2">
-        <v>41949</v>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>2014-11-06</t>
+        </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3637,8 +3718,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M46" s="2">
-        <v>41949</v>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>2014-11-06</t>
+        </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3713,8 +3796,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M47" s="2">
-        <v>41949</v>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>2014-11-06</t>
+        </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3789,8 +3874,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M48" s="2">
-        <v>41949</v>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>2014-11-06</t>
+        </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3865,8 +3952,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M49" s="2">
-        <v>41949</v>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>2014-11-06</t>
+        </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3941,8 +4030,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M50" s="2">
-        <v>41949</v>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>2014-11-06</t>
+        </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -4017,8 +4108,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M51" s="2">
-        <v>41949</v>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>2014-11-06</t>
+        </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4093,8 +4186,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M52" s="2">
-        <v>41949</v>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>2014-11-06</t>
+        </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4169,8 +4264,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M53" s="2">
-        <v>41949</v>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>2014-11-06</t>
+        </is>
       </c>
     </row>
     <row r="54">
@@ -4230,8 +4327,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M54" s="2">
-        <v>41956</v>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>2014-11-13</t>
+        </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4306,8 +4405,10 @@
           <t>Agriculture</t>
         </is>
       </c>
-      <c r="M55" s="2">
-        <v>41956</v>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>2014-11-13</t>
+        </is>
       </c>
     </row>
     <row r="56">
@@ -4367,8 +4468,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M56" s="2">
-        <v>41956</v>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>2014-11-13</t>
+        </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4443,8 +4546,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M57" s="2">
-        <v>41956</v>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>2014-11-13</t>
+        </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4519,8 +4624,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M58" s="2">
-        <v>41956</v>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>2014-11-13</t>
+        </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4595,8 +4702,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M59" s="2">
-        <v>41956</v>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>2014-11-13</t>
+        </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4671,8 +4780,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M60" s="2">
-        <v>41956</v>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>2014-11-13</t>
+        </is>
       </c>
     </row>
     <row r="61">
@@ -4732,8 +4843,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M61" s="2">
-        <v>41956</v>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>2014-11-13</t>
+        </is>
       </c>
     </row>
     <row r="62">
@@ -4793,8 +4906,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M62" s="2">
-        <v>41956</v>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>2014-11-13</t>
+        </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4869,8 +4984,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M63" s="2">
-        <v>41930</v>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>2014-10-18</t>
+        </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4945,8 +5062,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M64" s="2">
-        <v>41930</v>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>2014-10-18</t>
+        </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -5021,8 +5140,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M65" s="2">
-        <v>41928</v>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>2014-10-16</t>
+        </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5097,8 +5218,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M66" s="2">
-        <v>41930</v>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>2014-10-18</t>
+        </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5173,8 +5296,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M67" s="2">
-        <v>41928</v>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>2014-10-16</t>
+        </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5249,8 +5374,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M68" s="2">
-        <v>41930</v>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>2014-10-18</t>
+        </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5325,8 +5452,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M69" s="2">
-        <v>41930</v>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>2014-10-18</t>
+        </is>
       </c>
     </row>
     <row r="70">
@@ -5386,8 +5515,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M70" s="2">
-        <v>41930</v>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>2014-10-18</t>
+        </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5462,8 +5593,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M71" s="2">
-        <v>41930</v>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>2014-10-18</t>
+        </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5538,8 +5671,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M72" s="2">
-        <v>41947</v>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>2014-11-04</t>
+        </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5614,8 +5749,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M73" s="2">
-        <v>41947</v>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>2014-11-04</t>
+        </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5690,8 +5827,10 @@
           <t>Agriculture</t>
         </is>
       </c>
-      <c r="M74" s="2">
-        <v>41947</v>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>2014-11-04</t>
+        </is>
       </c>
     </row>
     <row r="75">
@@ -5751,8 +5890,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M75" s="2">
-        <v>41947</v>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>2014-11-04</t>
+        </is>
       </c>
     </row>
     <row r="76">
@@ -5812,8 +5953,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M76" s="2">
-        <v>41947</v>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>2014-11-04</t>
+        </is>
       </c>
     </row>
     <row r="77">
@@ -5873,8 +6016,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M77" s="2">
-        <v>41947</v>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>2014-11-04</t>
+        </is>
       </c>
     </row>
     <row r="78">
@@ -5934,8 +6079,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M78" s="2">
-        <v>41947</v>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>2014-11-04</t>
+        </is>
       </c>
     </row>
     <row r="79">
@@ -5995,8 +6142,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M79" s="2">
-        <v>41947</v>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>2014-11-04</t>
+        </is>
       </c>
     </row>
     <row r="80">
@@ -6056,8 +6205,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M80" s="2">
-        <v>41939</v>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>2014-10-27</t>
+        </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6132,8 +6283,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M81" s="2">
-        <v>41939</v>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>2014-10-27</t>
+        </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6208,8 +6361,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M82" s="2">
-        <v>41939</v>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>2014-10-27</t>
+        </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6284,8 +6439,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M83" s="2">
-        <v>41939</v>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>2014-10-27</t>
+        </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6360,8 +6517,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M84" s="2">
-        <v>41939</v>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>2014-10-27</t>
+        </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -6436,8 +6595,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M85" s="2">
-        <v>41939</v>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>2014-10-27</t>
+        </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -6512,8 +6673,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M86" s="2">
-        <v>41939</v>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>2014-10-27</t>
+        </is>
       </c>
     </row>
     <row r="87">
@@ -6573,8 +6736,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M87" s="2">
-        <v>41939</v>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>2014-10-27</t>
+        </is>
       </c>
     </row>
     <row r="88">
@@ -6634,8 +6799,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M88" s="2">
-        <v>41939</v>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>2014-10-27</t>
+        </is>
       </c>
     </row>
     <row r="89">
@@ -6695,8 +6862,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M89" s="2">
-        <v>41935</v>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>2014-10-23</t>
+        </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6771,8 +6940,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M90" s="2">
-        <v>41935</v>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>2014-10-23</t>
+        </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6847,8 +7018,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M91" s="2">
-        <v>41935</v>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>2014-10-23</t>
+        </is>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6923,8 +7096,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M92" s="2">
-        <v>41935</v>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>2014-10-23</t>
+        </is>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -6999,8 +7174,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M93" s="2">
-        <v>41935</v>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>2014-10-23</t>
+        </is>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7075,8 +7252,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M94" s="2">
-        <v>41935</v>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>2014-10-23</t>
+        </is>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7151,8 +7330,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M95" s="2">
-        <v>41935</v>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>2014-10-23</t>
+        </is>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7227,8 +7408,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M96" s="2">
-        <v>41935</v>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>2014-10-23</t>
+        </is>
       </c>
     </row>
     <row r="97">
@@ -7288,8 +7471,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M97" s="2">
-        <v>41936</v>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>2014-10-24</t>
+        </is>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7364,8 +7549,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M98" s="2">
-        <v>41933</v>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>2014-10-21</t>
+        </is>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -7440,8 +7627,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M99" s="2">
-        <v>41933</v>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>2014-10-21</t>
+        </is>
       </c>
     </row>
     <row r="100">
@@ -7501,8 +7690,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M100" s="2">
-        <v>41936</v>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>2014-10-24</t>
+        </is>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7577,8 +7768,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M101" s="2">
-        <v>41936</v>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>2014-10-24</t>
+        </is>
       </c>
     </row>
     <row r="102">
@@ -7638,8 +7831,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M102" s="2">
-        <v>41933</v>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>2014-10-21</t>
+        </is>
       </c>
       <c r="N102" t="inlineStr">
         <is>
@@ -7714,8 +7909,10 @@
           <t>Agriculture</t>
         </is>
       </c>
-      <c r="M103" s="2">
-        <v>41933</v>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>2014-10-21</t>
+        </is>
       </c>
     </row>
     <row r="104">
@@ -7775,8 +7972,10 @@
           <t>Agriculture</t>
         </is>
       </c>
-      <c r="M104" s="2">
-        <v>41933</v>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>2014-10-21</t>
+        </is>
       </c>
     </row>
     <row r="105">
@@ -7836,8 +8035,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M105" s="2">
-        <v>41933</v>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>2014-10-21</t>
+        </is>
       </c>
       <c r="N105" t="inlineStr">
         <is>
@@ -7912,8 +8113,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M106" s="2">
-        <v>41942</v>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>2014-10-30</t>
+        </is>
       </c>
     </row>
     <row r="107">
@@ -7973,8 +8176,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M107" s="2">
-        <v>41942</v>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>2014-10-30</t>
+        </is>
       </c>
       <c r="N107" t="inlineStr">
         <is>
@@ -8049,8 +8254,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M108" s="2">
-        <v>41942</v>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>2014-10-30</t>
+        </is>
       </c>
     </row>
     <row r="109">
@@ -8110,8 +8317,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M109" s="2">
-        <v>41942</v>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>2014-10-30</t>
+        </is>
       </c>
       <c r="N109" t="inlineStr">
         <is>
@@ -8186,8 +8395,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M110" s="2">
-        <v>41942</v>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>2014-10-30</t>
+        </is>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8262,8 +8473,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M111" s="2">
-        <v>41942</v>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>2014-10-30</t>
+        </is>
       </c>
       <c r="N111" t="inlineStr">
         <is>
@@ -8338,8 +8551,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M112" s="2">
-        <v>41942</v>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>2014-10-30</t>
+        </is>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -8414,8 +8629,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M113" s="2">
-        <v>41942</v>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>2014-10-30</t>
+        </is>
       </c>
       <c r="N113" t="inlineStr">
         <is>
@@ -8490,8 +8707,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M114" s="2">
-        <v>41940</v>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>2014-10-28</t>
+        </is>
       </c>
     </row>
     <row r="115">
@@ -8551,8 +8770,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M115" s="2">
-        <v>41940</v>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>2014-10-28</t>
+        </is>
       </c>
       <c r="N115" t="inlineStr">
         <is>
@@ -8627,8 +8848,10 @@
           <t>Agriculture</t>
         </is>
       </c>
-      <c r="M116" s="2">
-        <v>41940</v>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>2014-10-28</t>
+        </is>
       </c>
     </row>
     <row r="117">
@@ -8688,8 +8911,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M117" s="2">
-        <v>41940</v>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>2014-10-28</t>
+        </is>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -8764,8 +8989,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M118" s="2">
-        <v>41940</v>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>2014-10-28</t>
+        </is>
       </c>
       <c r="N118" t="inlineStr">
         <is>
@@ -8840,8 +9067,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M119" s="2">
-        <v>41940</v>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>2014-10-28</t>
+        </is>
       </c>
     </row>
     <row r="120">
@@ -8901,8 +9130,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M120" s="2">
-        <v>41940</v>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>2014-10-28</t>
+        </is>
       </c>
     </row>
     <row r="121">
@@ -8962,8 +9193,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M121" s="2">
-        <v>41940</v>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>2014-10-28</t>
+        </is>
       </c>
     </row>
     <row r="122">
@@ -9023,8 +9256,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M122" s="2">
-        <v>41932</v>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>2014-10-20</t>
+        </is>
       </c>
       <c r="N122" t="inlineStr">
         <is>
@@ -9099,8 +9334,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M123" s="2">
-        <v>41932</v>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>2014-10-20</t>
+        </is>
       </c>
       <c r="N123" t="inlineStr">
         <is>
@@ -9175,8 +9412,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M124" s="2">
-        <v>41932</v>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>2014-10-20</t>
+        </is>
       </c>
       <c r="N124" t="inlineStr">
         <is>
@@ -9251,8 +9490,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M125" s="2">
-        <v>41932</v>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>2014-10-20</t>
+        </is>
       </c>
     </row>
     <row r="126">
@@ -9312,8 +9553,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M126" s="2">
-        <v>41932</v>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>2014-10-20</t>
+        </is>
       </c>
     </row>
     <row r="127">
@@ -9373,8 +9616,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M127" s="2">
-        <v>41932</v>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>2014-10-20</t>
+        </is>
       </c>
       <c r="N127" t="inlineStr">
         <is>
@@ -9449,8 +9694,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M128" s="2">
-        <v>41932</v>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>2014-10-20</t>
+        </is>
       </c>
       <c r="N128" t="inlineStr">
         <is>
@@ -9525,8 +9772,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M129" s="2">
-        <v>41932</v>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>2014-10-20</t>
+        </is>
       </c>
       <c r="N129" t="inlineStr">
         <is>
@@ -9601,8 +9850,10 @@
           <t>Agriculture</t>
         </is>
       </c>
-      <c r="M130" s="2">
-        <v>41932</v>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>2014-10-20</t>
+        </is>
       </c>
     </row>
     <row r="131">
@@ -9662,8 +9913,10 @@
           <t>Natural</t>
         </is>
       </c>
-      <c r="M131" s="2">
-        <v>41932</v>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>2014-10-20</t>
+        </is>
       </c>
       <c r="N131" t="inlineStr">
         <is>

--- a/analysis/metadata/P01_1/P01_1_minimal_metadata.xlsx
+++ b/analysis/metadata/P01_1/P01_1_minimal_metadata.xlsx
@@ -2207,7 +2207,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Sclerophyllus scrub</t>
+          <t>Sclerophyllous scrub</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -4475,7 +4475,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Sclerophyllus scrub</t>
+          <t>Sclerophyllous scrub</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -5381,7 +5381,7 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>Sclerophyllus scrub</t>
+          <t>Sclerophyllous scrub</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -7337,7 +7337,7 @@
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>Sclerophyllus scrub</t>
+          <t>Sclerophyllous scrub</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
